--- a/biology/Zoologie/Bdellidae/Bdellidae.xlsx
+++ b/biology/Zoologie/Bdellidae/Bdellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bdellidae sont une famille d'acariens. La plupart des espèces sont chasseuses de petits arthropodes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bdellidae sont des animaux minuscules.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon E. A. Ueckermann[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon E. A. Ueckermann
 Bdellinae Grandjean, 1938
 Bdella Latreille, 1795
 Hexabdella van der Schyff, Theron &amp; Ueckermann, 2004 nec Verrill, 1872
@@ -596,7 +612,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dugès, 1834 : Recherches sur l'ordre des Acariens en général et la famille des Trombidiés en particulier. Annales des Sciences Naturelles, Zoologie, vol. 2, no 1, p. 5–46.</t>
         </is>
